--- a/docs/data_umm.xlsx
+++ b/docs/data_umm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\04_UMM\23umm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DCFF23-992A-4555-9D44-7B2F08119673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E40DCE6-423E-4B2E-A367-74C0AF421A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5459" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5466" uniqueCount="748">
   <si>
     <t>Agama</t>
   </si>
@@ -2663,11 +2663,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J685"/>
+  <dimension ref="A1:J686"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A652" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G668" sqref="G668"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A668" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G691" sqref="G691"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -22480,12 +22480,34 @@
         <v>6</v>
       </c>
     </row>
+    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>9106123163</v>
+      </c>
+      <c r="B686" t="s">
+        <v>735</v>
+      </c>
+      <c r="C686" t="s">
+        <v>46</v>
+      </c>
+      <c r="D686" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E686" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F686" t="s">
+        <v>18</v>
+      </c>
+      <c r="I686" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J686" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1">
-      <sortCondition ref="E1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
